--- a/products1.xlsx
+++ b/products1.xlsx
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ABOUT YOU</t>
+          <t>NIKE SPORTSWEAR</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>69,90 €</t>
+          <t>64,90 €</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ABOUT YOU</t>
+          <t>URBAN CLASSICS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>69,90 €</t>
+          <t>no 49,99 €</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ONLY</t>
+          <t>LSCN BY LASCANA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>69,90 €</t>
+          <t>64,90 €</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>RIEKER</t>
+          <t>ABOUT YOU</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>79,90 €</t>
+          <t>34,90 €</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ABOUT YOU</t>
+          <t>CONVERSE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>59,90 €</t>
+          <t>54,90 €</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PUMA</t>
+          <t>HUNKEMÖLLER</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>69,90 €</t>
+          <t>27,90 €</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ABOUT YOU</t>
+          <t>URBAN CLASSICS</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>47,90 €</t>
+          <t>29,99 €</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CONVERSE</t>
+          <t>TOM TAILOR DENIM</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>74,90 €</t>
+          <t>49,90 €</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>RIEKER</t>
+          <t>URBAN CLASSICS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>59,90 €</t>
+          <t>no 55,99 €</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>VANS</t>
+          <t>JJXX</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>64,90 €</t>
+          <t>29,90 €</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CONVERSE</t>
+          <t>JJXX</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>69,90 €</t>
+          <t>49,90 €</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ADIDAS PERFORMANCE</t>
+          <t>ABOUT YOU</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>59,90 €</t>
+          <t>39,90 €</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ABOUT YOU</t>
+          <t>TOM TAILOR</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>69,90 €</t>
+          <t>59,90 €</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ABOUT YOU</t>
+          <t>NIKE SPORTSWEAR</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -696,12 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ABOUT YOU</t>
+          <t>NIKE SPORTSWEAR</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>59,90 €</t>
+          <t>57,90 €</t>
         </is>
       </c>
     </row>
@@ -713,12 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>VANS</t>
+          <t>URBAN CLASSICS</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>79,90 €</t>
+          <t>27,99 €</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MUSTANG</t>
+          <t>PIECES</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>69,90 €</t>
+          <t>24,90 €</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ABOUT YOU</t>
+          <t>4F</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>39,90 €</t>
+          <t>32,90 €</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>EDITED</t>
+          <t>ONLY</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>47,90 €</t>
+          <t>37,90 €</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ABOUT YOU</t>
+          <t>ELLESSE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>39,90 €</t>
+          <t>64,90 €</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>VANS</t>
+          <t>SKECHERS</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>69,90 €</t>
+          <t>47,90 €</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ABOUT YOU</t>
+          <t>HUMMEL</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>32,90 €</t>
+          <t>39,90 €</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>VANS</t>
+          <t>ABOUT YOU LIMITED</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>79,90 €</t>
+          <t>17,90 €</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ABOUT YOU</t>
+          <t>ONLY</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>52,90 €</t>
+          <t>37,90 €</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ABOUT YOU</t>
+          <t>URBAN CLASSICS</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>59,90 €</t>
+          <t>no 24,99 €</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TAMARIS</t>
+          <t>ABOUT YOU X ALINA EREMIA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>34,90 €</t>
+          <t>9,90 €</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ABOUT YOU</t>
+          <t>JJXX</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>52,90 €</t>
+          <t>34,90 €</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ABOUT YOU</t>
+          <t>ABOUT YOU X ANTONIA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>39,90 €</t>
+          <t>57,90 €</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PUMA</t>
+          <t>MISTER TEE</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>54,90 €</t>
+          <t>no 29,90 €</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PUMA</t>
+          <t>DROPSIZE</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>59,90 €</t>
+          <t>49,99 €</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Puszābaki - black</t>
+          <t>NURSING HOODIE WITH SLIT - Džemperis ar kapuci - black</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>40,19 €</t>
+          <t>17,59 €</t>
         </is>
       </c>
     </row>
@@ -985,12 +985,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ONLBEATRIX - Puszābaki ar platformu - black</t>
+          <t>DREW PEAK HOODIE UNISEX - Džemperis ar kapuci - black</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>41,99 €</t>
+          <t>59,45 €</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ONLBUZZ - Puszābaki ar platformu - khaki</t>
+          <t>QUAT WAFFLE OVERSIZED HOODIE - Ikdienas džemperis - vintage onyx black</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>41,99 €</t>
+          <t>59,95 €</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>HANNA PLATFORM - Augstpapēžu zābaki - black smooth</t>
+          <t>NURSING HOODIE WITH SLIT - Džemperis ar kapuci - dark blue</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>29,45 €</t>
+          <t>17,59 €</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ONLBUZZ - Puszābaki ar platformu - black</t>
+          <t>FLAG SPRAY HOODIE UNISEX - Ikdienas džemperis - black</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>35,99 €</t>
+          <t>60,95 €</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ONLBARBARA HEELED BOOT - Ziemas zābaki - black</t>
+          <t>ZIP HOODIE - Flīsa jaka - salvia</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>38,69 €</t>
+          <t>27,99 €</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1070,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>RIVER BOOT - Gumijas zābaki - ecru</t>
+          <t>HOODIE HYBRID UNISEX - Ikdienas džemperis - black</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>39,95 €</t>
+          <t>17,99 €</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>RIVER BOOT - Zābaki ar platformu - black</t>
+          <t>UNISEX HOODIE ZIP KINGDOM - Jaka ar rāvējslēdzēju - cognac</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>27,65 €</t>
+          <t>49,95 €</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ONLBEATRIX - Puszābaki ar platformu - dark brown</t>
+          <t>SMALL SIGNATURE STRIPE HOODIE - Džemperis ar kapuci - multicolor</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>29,99 €</t>
+          <t>55,95 €</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Skeitborda apavi - black gum</t>
+          <t>TOKYO STREET HOODIE UNISEX - Džemperis ar kapuci - black</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>66,95 €</t>
+          <t>19,39 €</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1138,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ONLBARBARA - Puszābaki ar platformu - black</t>
+          <t>BASELINE HOODIE UNISEX - Ikdienas džemperis - purple</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>47,99 €</t>
+          <t>32,95 €</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PURE WR BOOT UNISEX - Augsti sporta apavi - olive/black</t>
+          <t>REGULAR HOODIE UNISEX - Ikdienas džemperis - minty</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>66,95 €</t>
+          <t>58,45 €</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ONLBOLD CHELSA BOOTIE - Ziemas zābaki - black</t>
+          <t>ESSENTIAL FUNNEL HOODIE - Jaka ar rāvējslēdzēju - black</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>47,99 €</t>
+          <t>48,96 €</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ONLBEE - Baletkurpes - gold</t>
+          <t>INFINITE HOODIE - Ikdienas džemperis - brown</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>25,59 €</t>
+          <t>15,89 €</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ONLBIANCA - Puszābaki ar platformu - black</t>
+          <t>FAUX SHEARLING-LINED ZIP-UP LOGO GRAPHIC HOODIE - Viegla jaka - NAVY BLAZER</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>41,99 €</t>
+          <t>51,95 €</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Augstpapēžu puszābaki - black smooth</t>
+          <t>ONE HOODIE - Džemperis ar kapuci - black/white</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>32,95 €</t>
+          <t>52,45 €</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>VEGAN MACKENZIE COMBAT TALL GUSSET BOOT - Zābaki - ecru</t>
+          <t>VINTAGE EAGLE HOODIE - Ikdienas džemperis - black</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>25,95 €</t>
+          <t>60,95 €</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1257,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>IVY BLOCK BOOT - Augstpapēžu puszābaki - vanilla</t>
+          <t>BETRAYED ZIP HOODIE UNISEX - Jaka ar rāvējslēdzēju - olive</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>24,95 €</t>
+          <t>47,95 €</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1274,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ISABELLA - Augstpapēžu zābaki - black smooth</t>
+          <t>PLAYBOY CHINA HOODIE UNISEX - Džemperis ar kapuci - moondust grey/black</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>29,45 €</t>
+          <t>27,95 €</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ONLAURA MULE - Iešļūcenes - black</t>
+          <t>LAYTON OVERSIZED HOODIE - Ikdienas džemperis - vintage mustard</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>12,09 €</t>
+          <t>59,95 €</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ONLALYX STRAP - Augstpapēžu sandales - black</t>
+          <t>ZIP HOODIE - Jaka ar rāvējslēdzēju - fuchsia purple</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>38,39 €</t>
+          <t>55,45 €</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Sandales - black</t>
+          <t>LUXE HOODIE - Džemperis ar kapuci - black/iron grey</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>32,69 €</t>
+          <t>58,45 €</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ONLTINA LACE UP BOOT - Šņorējami puszābaki - black</t>
+          <t>ORGANIZATION HOODIE - Džemperis ar kapuci - black</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>35,99 €</t>
+          <t>59,95 €</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ONLBANYU - Puszābaki ar platformu - khaki</t>
+          <t>RELAXED LOGO HOODIE - Ikdienas džemperis - HEATHER GREY</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>41,99 €</t>
+          <t>27,95 €</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ONLBUZZ - Puszābaki ar platformu - beige</t>
+          <t>HOODIE - Ikdienas džemperis - brown</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>35,99 €</t>
+          <t>15,89 €</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PARKER COMBAT GUSSET BOOT - Puszābaki ar platformu - brown</t>
+          <t>TECHNO KIDS RELAXED HOODIE - Ikdienas džemperis - black</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>29,95 €</t>
+          <t>15,89 €</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ONLHARPER TEDDY SLIDE - Čības - black</t>
+          <t>NELSON OVERSIZED HOODIE - Ikdienas džemperis - vintage mustard</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>25,59 €</t>
+          <t>51,95 €</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1427,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ONLALYX LIFE - Sandales - black</t>
+          <t>TONAL EMBRO ZIP THRU HOODIE - Jaka ar rāvējslēdzēju - night sky</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>38,39 €</t>
+          <t>55,95 €</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ONLBLOOM 5 - Puszābaki - black</t>
+          <t>HOODIE - Džemperis ar kapuci - black</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>35,99 €</t>
+          <t>21,95 €</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PURE WR BOOT UNISEX - Augsti sporta apavi - black/grey</t>
+          <t>2 PACK NURSING HOODIE - Džemperis ar kapuci - light grey/dark blue</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>66,95 €</t>
+          <t>31,69 €</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ONLBLAZE - Zābaki pāri celim - black</t>
+          <t>SHERPA HOODIE - Flīsa džemperis - white</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>52,49 €</t>
+          <t>56,45 €</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1495,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ONLBANYU - Puszābaki ar platformu - beige</t>
+          <t>FLEECE ICON HOODIE - Džemperis ar kapuci - SKY CAPTAIN</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>34,99 €</t>
+          <t>46,95 €</t>
         </is>
       </c>
     </row>
@@ -1512,12 +1512,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ONLDOJA LONG BOOT - Zābaki ar platformu - off-white</t>
+          <t>DREW PEAK HOODIE UNISEX - Džemperis ar kapuci - light grey heather</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>55,99 €</t>
+          <t>62,95 €</t>
         </is>
       </c>
     </row>
@@ -1529,12 +1529,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Sandales - black</t>
+          <t>SPONGE BOB LICENSE FRONT EMBRO HOODIE - Ikdienas džemperis - black</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>40,19 €</t>
+          <t>21,99 €</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>HEIKKILA FS NB KTTP KVM0 - Apdrukāts T-krekls - pirate black rain wash</t>
+          <t>RIVAL HOODIE - Džemperis ar kapuci - black</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>19,95 €</t>
+          <t>47,95 €</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ONLBRONCO SHORT - Kovboju/motociklistu tipa puszābaki - black</t>
+          <t>UNSTOPPABLE HOODIE - Džemperis ar kapuci - team royal/black</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>35,99 €</t>
+          <t>47,45 €</t>
         </is>
       </c>
     </row>
@@ -1580,12 +1580,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ONLTOLA TALL CHUNKY BOOT - Zābaki ar platformu - black</t>
+          <t>POLAR FLEECE CUT &amp; SEW OVERHEAD HOODIE - Džemperis ar kapuci - black</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>45,49 €</t>
+          <t>44,97 €</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ONLTASHA BOOTIE - Puszābaki ar platformu - black</t>
+          <t>OVERHEAD RETRO SPORTS HOODIE - Džemperis ar kapuci - black</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>41,99 €</t>
+          <t>38,97 €</t>
         </is>
       </c>
     </row>
@@ -1614,12 +1614,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ISABELLA BLOCK HEEL - Zābaki - beige</t>
+          <t>SHADOW HOODIE UNISEX - Ikdienas džemperis - black</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>29,45 €</t>
+          <t>59,95 €</t>
         </is>
       </c>
     </row>
@@ -1631,12 +1631,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ONLBETTY 6 - Klasiski puszābaki - khaki</t>
+          <t>RIVAL HOODIE - Džemperis ar kapuci - midnight navy/white</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>26,99 €</t>
+          <t>47,95 €</t>
         </is>
       </c>
     </row>
@@ -1648,12 +1648,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ONLBUZZ - Puszābaki ar platformu - gold</t>
+          <t>VMTRINA HOODIE DRESS - Dienas kleita - medium grey</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>35,99 €</t>
+          <t>26,39 €</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1665,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>KINGPIN KTTP - Apdrukāts T-krekls - black</t>
+          <t>FUTURE FADE MULTI GRAPHIC HOODIE GENDERLESS UNISEX - Džemperis ar kapuci - black</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>19,95 €</t>
+          <t>64,95 €</t>
         </is>
       </c>
     </row>
@@ -1682,12 +1682,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Augsti papēži - black</t>
+          <t>TONAL VARSITY LOGO POPOVER HOODIE - Džemperis ar kapuci - PHANTOM</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>24,99 €</t>
+          <t>63,95 €</t>
         </is>
       </c>
     </row>
@@ -1699,12 +1699,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CHRIS CLOSED TOE - Apavi ar platformu un papēžiem - bone</t>
+          <t>FAUX SHEARLING-LINED ZIP-UP LOGO GRAPHIC HOODIE - Viegla jaka - CLOUD DANCER</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>24,95 €</t>
+          <t>35,95 €</t>
         </is>
       </c>
     </row>
@@ -1716,12 +1716,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ONLCALI LIFE CHAIN - Klasiski papēži - black</t>
+          <t>FINE HOODIE UNISEX - Džemperis - black</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>42,69 €</t>
+          <t>34,99 €</t>
         </is>
       </c>
     </row>
@@ -1733,12 +1733,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Apavi ar platformu un papēžiem - brown</t>
+          <t>CHEST SIGNATURE HOODIE UNISEX - Džemperis ar kapuci - cognac</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>35,99 €</t>
+          <t>53,99 €</t>
         </is>
       </c>
     </row>
@@ -1750,12 +1750,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>STARPILOT FB TEES BGL0 - Apdrukāts T-krekls - forget me not</t>
+          <t>TRIBAL BEAR RELAXED HOODIE - Džemperis ar kapuci - mottled light grey</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>16,95 €</t>
+          <t>19,39 €</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Sandales - brown</t>
+          <t>CITY EMBRO HOODIE - Džemperis ar kapuci - brown</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>40,19 €</t>
+          <t>24,09 €</t>
         </is>
       </c>
     </row>
@@ -1784,12 +1784,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ONLBRONCO SHORT - Kovboju/motociklistu tipa puszābaki - silver</t>
+          <t>RIVAL HOODIE - Džemperis ar kapuci - royal/white</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>35,99 €</t>
+          <t>50,95 €</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ONLHONEY QUILTED SLIPPER - Čības - black</t>
+          <t>ESSENTIALS BRUSHED BACK HOODIE UNISEX - Ikdienas džemperis - athletic grey</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>18,09 €</t>
+          <t>32,95 €</t>
         </is>
       </c>
     </row>
@@ -1818,12 +1818,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>FRANKIE STRAPPY SLIDE - Iešļūcenes - black</t>
+          <t>REPEAT LOGO TOWELLING HOODIE - Džemperis ar kapuci - light grey</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>16,00 €</t>
+          <t>31,95 €</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ONLAUBREY - Sandales - silver</t>
+          <t>TEENS BOX HOODIE UNISEX - Džemperis ar kapuci - white/black</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>42,69 €</t>
+          <t>62,95 €</t>
         </is>
       </c>
     </row>
@@ -1852,12 +1852,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ONLBANYU - Puszābaki ar platformu - off white</t>
+          <t>EUPHORIC HOODIE - Džemperis ar kapuci - sand</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>29,99 €</t>
+          <t>54,95 €</t>
         </is>
       </c>
     </row>
@@ -1869,12 +1869,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Skeitborda apavi - yellow</t>
+          <t>CLASSIC HOODIE - Džemperis ar kapuci - soft blue</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>66,95 €</t>
+          <t>25,49 €</t>
         </is>
       </c>
     </row>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ONLHARPER TEDDY SLIDE - Čības - light pink</t>
+          <t>RIVAL HOODIE - Džemperis ar kapuci - red</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>24,09 €</t>
+          <t>41,97 €</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>PASSAGE - Ziemas jaka - black</t>
+          <t>UDINEE HOODIE - Džemperis ar kapuci - black</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>59,95 €</t>
+          <t>42,45 €</t>
         </is>
       </c>
     </row>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ONLSWIFT - Augsti sporta apavi - white/beige</t>
+          <t>CHROMATIC HOODIE - Džemperis ar kapuci - black</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>38,69 €</t>
+          <t>64,95 €</t>
         </is>
       </c>
     </row>
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ONLBARBARA CHELSEA BOOTIE - Klasiski puszābaki - black</t>
+          <t>TIMOTA HOODIE - Jaka ar rāvējslēdzēju - burgundy</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>35,19 €</t>
+          <t>45,45 €</t>
         </is>
       </c>
     </row>
@@ -1954,12 +1954,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ONLWELLIE - Gumijas zābaki - khaki</t>
+          <t>VMTRINA HOODIE DRESS - Dienas kleita - black</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>35,19 €</t>
+          <t>21,09 €</t>
         </is>
       </c>
     </row>
@@ -1971,12 +1971,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ONLBETH - Kovboju/motociklistu tipa puszābaki - black</t>
+          <t>AUTUMN HOODIE - Džemperis ar kapuci - sage</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>38,99 €</t>
+          <t>35,95 €</t>
         </is>
       </c>
     </row>
@@ -1988,12 +1988,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>STAR - Apdrukāts T-krekls - white</t>
+          <t>ESSENTIAL POPOVER HOODIE - Džemperis ar kapuci - HOT FUDGE</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>26,35 €</t>
+          <t>43,95 €</t>
         </is>
       </c>
     </row>
@@ -2005,12 +2005,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ONLALYX SINGLE KNOT - Augstpapēžu sandales - white</t>
+          <t>HERO LOGO COMFORT HOODIE - Ikdienas džemperis - italian plum</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>21,99 €</t>
+          <t>49,95 €</t>
         </is>
       </c>
     </row>
@@ -2022,12 +2022,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>PIPPA PADDED DOUBLE STRAP SLIDE - Iešļūcenes - black</t>
+          <t>ONLJODA EVERY HOODIE DRESS - Dienas kleita - medium grey</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>13,95 €</t>
+          <t>16,79 €</t>
         </is>
       </c>
     </row>
@@ -2039,12 +2039,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MANUAL - Augsti sporta apavi - black/gold</t>
+          <t>HOODIE HYBRID UNISEX - Ikdienas džemperis - mottled light grey</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>44,95 €</t>
+          <t>17,99 €</t>
         </is>
       </c>
     </row>
@@ -2056,12 +2056,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>EMILY BOW - Baletkurpes - black</t>
+          <t>FIT MOVE CROP HOODIE - Džemperis ar kapuci - icy blue</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>19,95 €</t>
+          <t>41,95 €</t>
         </is>
       </c>
     </row>
@@ -2073,12 +2073,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ONLBETH - Puszābaki ar platformu - black</t>
+          <t>EDGE HOODIE - Džemperis ar kapuci - vintage black</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>34,99 €</t>
+          <t>64,95 €</t>
         </is>
       </c>
     </row>
@@ -2090,12 +2090,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ONLCALI LIFE CHAIN - Klasiski papēži - gold</t>
+          <t>ESSENTIAL HOODIE - Džemperis ar kapuci - black/white</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>42,69 €</t>
+          <t>48,95 €</t>
         </is>
       </c>
     </row>
@@ -2107,12 +2107,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Sandales - pink</t>
+          <t>LUXE VARSITY HOODIE - Ikdienas džemperis - black</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>40,19 €</t>
+          <t>58,95 €</t>
         </is>
       </c>
     </row>
@@ -2124,12 +2124,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MANUAL - Sporta apavi - white/black</t>
+          <t>ARCADE HOODIE UNISEX - Džemperis ar kapuci - black</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>29,95 €</t>
+          <t>58,45 €</t>
         </is>
       </c>
     </row>
@@ -2141,12 +2141,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>BEDART KTTP - Tops ar garām piedurknēm - capers</t>
+          <t>HOODIE - Ikdienas džemperis - desert sky</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>21,95 €</t>
+          <t>59,95 €</t>
         </is>
       </c>
     </row>
@@ -2158,12 +2158,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>WIDE FIT ANDIE SQUARE TOE LOW HEEL BOOT - Klasiski puszābaki - ginger tan</t>
+          <t>LEGACY LOGO HOODIE LEGACY TAPERED PANTS - Treniņtērps - grey melange</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>22,65 €</t>
+          <t>51,95 €</t>
         </is>
       </c>
     </row>
@@ -2175,12 +2175,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ONLAURA MULE - Iešļūcenes - light brown</t>
+          <t>ESSENTIAL HOODIE - Džemperis ar kapuci - mod gray light heather/white</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>12,09 €</t>
+          <t>57,95 €</t>
         </is>
       </c>
     </row>
@@ -2192,12 +2192,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ONLSAHEL - Sporta apavi - off-white</t>
+          <t>PRINTED BOX CROPPED HOODIE - Džemperis ar kapuci - black</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>35,99 €</t>
+          <t>49,95 €</t>
         </is>
       </c>
     </row>
@@ -2209,12 +2209,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>VASIL VEGAN - Iešļūcenes - grey</t>
+          <t>RIVAL HOODIE - Jaka ar rāvējslēdzēju - black/white</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>33,95 €</t>
+          <t>45,45 €</t>
         </is>
       </c>
     </row>
@@ -2226,12 +2226,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ONLHONEY QUILTED SLIPPER - Čības - beige</t>
+          <t>HOODIE - Džemperis ar kapuci - medium grey heather</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>18,09 €</t>
+          <t>21,95 €</t>
         </is>
       </c>
     </row>
@@ -2243,12 +2243,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>PIPPA PADDED DOUBLE STRAP SLIDE - Iešļūcenes - white</t>
+          <t>ONSBEAVIS AND BUTTHEAD HOODIE UNISEX - Ikdienas džemperis - black</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>13,95 €</t>
+          <t>27,69 €</t>
         </is>
       </c>
     </row>
@@ -2260,12 +2260,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>MANDALA - T veida siksniņu sandales - gold</t>
+          <t>GOLINI HOODIE - Džemperis ar kapuci - burgundy</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>21,09 €</t>
+          <t>35,95 €</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2277,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ONLSWIFT - Augsti sporta apavi - black/red/white</t>
+          <t>DIAMANTE ZIP THRU HOODIE - Jaka ar rāvējslēdzēju - botanical garden</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>44,19 €</t>
+          <t>55,45 €</t>
         </is>
       </c>
     </row>
@@ -2294,12 +2294,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>LESS IS MORE - Klasiski papēži - black</t>
+          <t>EXCLUSIVE TIE DYE HOODIE UNISEX - Džemperis ar kapuci - liquid blue</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>47,95 €</t>
+          <t>41,95 €</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ONLALYSSA TWISTED - Iešļūcenes ar papēdi - blue</t>
+          <t>BASIC - Cropped oversized hoodie - Džemperis ar kapuci - mottled grey</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>18,19 €</t>
+          <t>13,79 €</t>
         </is>
       </c>
     </row>
@@ -2328,12 +2328,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>VEGAN MAZE COMBAT PLATFORM MIDI GUSSET BOOT - Puszābaki ar platformu - olive green</t>
+          <t>HOODIE - Džemperis ar kapuci - possibly pink</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>23,95 €</t>
+          <t>41,95 €</t>
         </is>
       </c>
     </row>
@@ -2345,12 +2345,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>FRANKIE STRAPPY SLIDE - Iešļūcenes - tan</t>
+          <t>ESSENTIAL HOODIE UNISEX - Džemperis ar kapuci - light grey heather</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>16,00 €</t>
+          <t>47,95 €</t>
         </is>
       </c>
     </row>
@@ -2362,12 +2362,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>WIDE FIT QUINN BLOCK - Augstpapēžu sandales - camel</t>
+          <t>DOWNTOWN OVERSIZED GRAPHIC HOODIE - Džemperis ar kapuci - peach smoothie</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>17,95 €</t>
+          <t>48,95 €</t>
         </is>
       </c>
     </row>
@@ -2379,12 +2379,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>CITYWIDE - Apdrukāts T-krekls - grey</t>
+          <t>INTARSIA LOGO HOODIE - Ikdienas džemperis - black</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>19,95 €</t>
+          <t>39,95 €</t>
         </is>
       </c>
     </row>
